--- a/学情反馈解决方案/dataWork.xlsx
+++ b/学情反馈解决方案/dataWork.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="204">
   <si>
     <t>学员uid</t>
   </si>
@@ -52,13 +52,40 @@
     <t>sum</t>
   </si>
   <si>
+    <t>崔菁菁</t>
+  </si>
+  <si>
+    <t>董子涵</t>
+  </si>
+  <si>
+    <t>张雪婷</t>
+  </si>
+  <si>
+    <t>祁昀玮</t>
+  </si>
+  <si>
+    <t>李宇惠</t>
+  </si>
+  <si>
+    <t>尹思源</t>
+  </si>
+  <si>
     <t>陈贵义</t>
   </si>
   <si>
-    <t>董子涵</t>
-  </si>
-  <si>
-    <t>张雪婷</t>
+    <t>汪舒毅</t>
+  </si>
+  <si>
+    <t>杨瑜涵</t>
+  </si>
+  <si>
+    <t>张琰</t>
+  </si>
+  <si>
+    <t>孙红梅</t>
+  </si>
+  <si>
+    <t>翟海洋</t>
   </si>
   <si>
     <t>郭淼</t>
@@ -70,30 +97,12 @@
     <t>张紫红</t>
   </si>
   <si>
-    <t>尹思源</t>
-  </si>
-  <si>
     <t>凌潇楠</t>
   </si>
   <si>
     <t>宋天宇</t>
   </si>
   <si>
-    <t>崔菁菁</t>
-  </si>
-  <si>
-    <t>内部号</t>
-  </si>
-  <si>
-    <t>运营</t>
-  </si>
-  <si>
-    <t>老板</t>
-  </si>
-  <si>
-    <t>李宇惠</t>
-  </si>
-  <si>
     <t>黄路文</t>
   </si>
   <si>
@@ -124,9 +133,6 @@
     <t>邓鑫钰</t>
   </si>
   <si>
-    <t>祁昀玮</t>
-  </si>
-  <si>
     <t>孟祥睿</t>
   </si>
   <si>
@@ -139,9 +145,6 @@
     <t>陈敬宇</t>
   </si>
   <si>
-    <t>张琰</t>
-  </si>
-  <si>
     <t>申思雨</t>
   </si>
   <si>
@@ -151,49 +154,61 @@
     <t>王森</t>
   </si>
   <si>
-    <t>翟海洋</t>
-  </si>
-  <si>
-    <t>杨瑜涵</t>
-  </si>
-  <si>
     <t>梁荃</t>
   </si>
   <si>
-    <t>孙红梅</t>
-  </si>
-  <si>
     <t>朱宇</t>
   </si>
   <si>
-    <t>汪舒毅</t>
-  </si>
-  <si>
     <t>余政暄</t>
   </si>
   <si>
+    <t>冯梦瑶</t>
+  </si>
+  <si>
     <t>刘博芝</t>
   </si>
   <si>
+    <t>蔡雨晴</t>
+  </si>
+  <si>
+    <t>张鹏军</t>
+  </si>
+  <si>
+    <t>杨欣娴</t>
+  </si>
+  <si>
+    <t>邱冰</t>
+  </si>
+  <si>
+    <t>陈九洲</t>
+  </si>
+  <si>
+    <t>孔思佳</t>
+  </si>
+  <si>
+    <t>张宇</t>
+  </si>
+  <si>
+    <t>高颖</t>
+  </si>
+  <si>
     <t>兰欣悦</t>
   </si>
   <si>
-    <t>张鹏军</t>
-  </si>
-  <si>
-    <t>杨欣娴</t>
-  </si>
-  <si>
-    <t>邱冰</t>
+    <t>李秀霞</t>
   </si>
   <si>
     <t>袁紫玉</t>
   </si>
   <si>
+    <t>海溶哲</t>
+  </si>
+  <si>
     <t>景嘉锐</t>
   </si>
   <si>
-    <t>张宇</t>
+    <t>范紫萱</t>
   </si>
   <si>
     <t>张宇轩</t>
@@ -202,9 +217,6 @@
     <t>车乐</t>
   </si>
   <si>
-    <t>冯梦瑶</t>
-  </si>
-  <si>
     <t>刘宇航</t>
   </si>
   <si>
@@ -226,12 +238,6 @@
     <t>刘家欣</t>
   </si>
   <si>
-    <t>孔思佳</t>
-  </si>
-  <si>
-    <t>陈九洲</t>
-  </si>
-  <si>
     <t>李卓蔓</t>
   </si>
   <si>
@@ -253,9 +259,6 @@
     <t>刘颖洁</t>
   </si>
   <si>
-    <t>范紫萱</t>
-  </si>
-  <si>
     <t>章灵</t>
   </si>
   <si>
@@ -274,24 +277,15 @@
     <t>车海博</t>
   </si>
   <si>
-    <t>海溶哲</t>
-  </si>
-  <si>
     <t>王晓慧</t>
   </si>
   <si>
     <t>马俊</t>
   </si>
   <si>
-    <t>李秀霞</t>
-  </si>
-  <si>
     <t>黄颖琦</t>
   </si>
   <si>
-    <t>高颖</t>
-  </si>
-  <si>
     <t>孙洋</t>
   </si>
   <si>
@@ -304,7 +298,7 @@
     <t>徐红惠</t>
   </si>
   <si>
-    <t>蔡雨晴</t>
+    <t>颖颖</t>
   </si>
   <si>
     <t>bignamey7</t>
@@ -313,54 +307,42 @@
     <t>159****6838</t>
   </si>
   <si>
+    <t>巧巧</t>
+  </si>
+  <si>
+    <t>宇惠同学</t>
+  </si>
+  <si>
+    <t>152****4450</t>
+  </si>
+  <si>
+    <t>汪可一</t>
+  </si>
+  <si>
+    <t>Veronica.</t>
+  </si>
+  <si>
+    <t>丫头</t>
+  </si>
+  <si>
+    <t>小鱼仙馆</t>
+  </si>
+  <si>
+    <t>能耐我何</t>
+  </si>
+  <si>
     <t>＊</t>
   </si>
   <si>
     <t>我想睡觉</t>
   </si>
   <si>
-    <t>152****4450</t>
-  </si>
-  <si>
     <t>城市Dodge</t>
   </si>
   <si>
     <t>136****7661</t>
   </si>
   <si>
-    <t>颖颖</t>
-  </si>
-  <si>
-    <t>Easy beauty</t>
-  </si>
-  <si>
-    <t>波波老师的小粉丝</t>
-  </si>
-  <si>
-    <t>yunying</t>
-  </si>
-  <si>
-    <t>showe</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>EDDY</t>
-  </si>
-  <si>
-    <t>暴风骤雨</t>
-  </si>
-  <si>
-    <t>范</t>
-  </si>
-  <si>
-    <t>锋哥</t>
-  </si>
-  <si>
-    <t>宇惠同学</t>
-  </si>
-  <si>
     <t>189****6033</t>
   </si>
   <si>
@@ -391,9 +373,6 @@
     <t>我才是宝贝.</t>
   </si>
   <si>
-    <t>巧巧</t>
-  </si>
-  <si>
     <t>Bone.</t>
   </si>
   <si>
@@ -403,9 +382,6 @@
     <t>132****8086</t>
   </si>
   <si>
-    <t>丫头</t>
-  </si>
-  <si>
     <t>IYUE*</t>
   </si>
   <si>
@@ -415,37 +391,46 @@
     <t>mcy</t>
   </si>
   <si>
-    <t>能耐我何</t>
-  </si>
-  <si>
-    <t>Veronica.</t>
-  </si>
-  <si>
     <t>152****8526</t>
   </si>
   <si>
-    <t>小鱼仙馆</t>
-  </si>
-  <si>
     <t>拼搏</t>
   </si>
   <si>
-    <t>汪可一</t>
-  </si>
-  <si>
     <t>祖国和我</t>
   </si>
   <si>
+    <t>无风不起浪</t>
+  </si>
+  <si>
     <t>陌╰*´`*╯墨</t>
   </si>
   <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>186****5158</t>
+  </si>
+  <si>
+    <t>邱冰♡</t>
+  </si>
+  <si>
+    <t>姜子牙</t>
+  </si>
+  <si>
+    <t>181****0533</t>
+  </si>
+  <si>
+    <t>维维</t>
+  </si>
+  <si>
+    <t>颜值主播乔碧萝</t>
+  </si>
+  <si>
     <t>简单</t>
   </si>
   <si>
-    <t>186****5158</t>
-  </si>
-  <si>
-    <t>邱冰♡</t>
+    <t>清纾.</t>
   </si>
   <si>
     <t>幸福在你左右</t>
@@ -454,7 +439,7 @@
     <t>平平</t>
   </si>
   <si>
-    <t>维维</t>
+    <t>Vin南南</t>
   </si>
   <si>
     <t>红辣椒</t>
@@ -463,9 +448,6 @@
     <t>得意淡然</t>
   </si>
   <si>
-    <t>无风不起浪</t>
-  </si>
-  <si>
     <t>星雨·心语</t>
   </si>
   <si>
@@ -481,12 +463,6 @@
     <t>🐸😄</t>
   </si>
   <si>
-    <t>181****0533</t>
-  </si>
-  <si>
-    <t>姜子牙</t>
-  </si>
-  <si>
     <t>Hamster😏</t>
   </si>
   <si>
@@ -505,9 +481,6 @@
     <t>lollipop</t>
   </si>
   <si>
-    <t>Vin南南</t>
-  </si>
-  <si>
     <t>章小新</t>
   </si>
   <si>
@@ -526,24 +499,15 @@
     <t>133****0626</t>
   </si>
   <si>
-    <t>森林</t>
-  </si>
-  <si>
     <t>鱼柒</t>
   </si>
   <si>
     <t>隐形的翅膀</t>
   </si>
   <si>
-    <t>清纾.</t>
-  </si>
-  <si>
     <t>139****2860</t>
   </si>
   <si>
-    <t>颜值主播乔碧萝</t>
-  </si>
-  <si>
     <t>132****1831</t>
   </si>
   <si>
@@ -556,13 +520,40 @@
     <t>159****8520</t>
   </si>
   <si>
+    <t>2020-01-17 21:18:17</t>
+  </si>
+  <si>
+    <t>2020-01-17 18:04:32</t>
+  </si>
+  <si>
+    <t>2020-01-17 18:37:14</t>
+  </si>
+  <si>
+    <t>2020-01-17 22:37:54</t>
+  </si>
+  <si>
+    <t>2020-01-17 22:36:14</t>
+  </si>
+  <si>
+    <t>2020-01-17 18:14:45</t>
+  </si>
+  <si>
     <t>2020-01-17 17:56:21</t>
   </si>
   <si>
-    <t>2020-01-17 18:04:32</t>
-  </si>
-  <si>
-    <t>2020-01-17 18:37:14</t>
+    <t>2020-01-17 21:50:31</t>
+  </si>
+  <si>
+    <t>2020-01-18 10:15:50</t>
+  </si>
+  <si>
+    <t>2020-01-17 20:54:16</t>
+  </si>
+  <si>
+    <t>2020-01-18 09:35:03</t>
+  </si>
+  <si>
+    <t>2020-01-18 09:10:45</t>
   </si>
   <si>
     <t>2020-01-17 16:07:46</t>
@@ -574,31 +565,52 @@
     <t>2020-01-17 15:55:40</t>
   </si>
   <si>
-    <t>2020-01-17 18:14:45</t>
+    <t>2020-01-17 21:17:18</t>
   </si>
   <si>
     <t>2020-01-17 18:33:32</t>
   </si>
   <si>
+    <t>2020-01-17 22:48:56</t>
+  </si>
+  <si>
+    <t>2020-01-17 15:52:44</t>
+  </si>
+  <si>
+    <t>2020-01-17 18:45:32</t>
+  </si>
+  <si>
+    <t>2020-01-17 16:07:35</t>
+  </si>
+  <si>
+    <t>2020-01-18 09:44:11</t>
+  </si>
+  <si>
+    <t>2020-01-18 01:10:45</t>
+  </si>
+  <si>
+    <t>2020-01-17 16:11:43</t>
+  </si>
+  <si>
+    <t>2020-01-17 22:59:04</t>
+  </si>
+  <si>
     <t>2020-01-17 16:01:45</t>
   </si>
   <si>
-    <t>2020-01-17 15:52:44</t>
-  </si>
-  <si>
-    <t>2020-01-17 18:45:32</t>
-  </si>
-  <si>
-    <t>2020-01-17 16:07:35</t>
+    <t>2020-01-18 07:46:01</t>
   </si>
   <si>
     <t>2020-01-17 19:23:59</t>
   </si>
   <si>
+    <t>2020-01-18 09:05:30</t>
+  </si>
+  <si>
     <t>2020-01-17 16:59:55</t>
   </si>
   <si>
-    <t>2020-01-17 16:11:43</t>
+    <t>2020-01-17 20:24:28</t>
   </si>
   <si>
     <t>2020-01-17 17:40:45</t>
@@ -971,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,37 +1029,37 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>1.441152152398799e+17</v>
+        <v>1.441152134175404e+17</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>25</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1058,16 +1070,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H3">
         <v>25</v>
@@ -1093,16 +1105,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1122,25 +1134,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>1.4411521360518e+17</v>
+        <v>1.441152110281079e+17</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -1152,103 +1164,103 @@
         <v>25</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>1.441152155913287e+17</v>
+        <v>1.441152150730597e+17</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>25</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>25</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>2452286352</v>
+        <v>1.441152156048919e+17</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>1.441152156048919e+17</v>
+        <v>1.441152152398799e+17</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>25</v>
@@ -1257,292 +1269,316 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>1368499537</v>
+        <v>1.441152155773709e+17</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
       </c>
       <c r="L9">
-        <v>4000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>1.441152147165811e+17</v>
+        <v>1.441152120389063e+17</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" t="s">
-        <v>199</v>
-      </c>
-      <c r="J10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K10" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
       </c>
       <c r="L10">
-        <v>4000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>1.441152134175404e+17</v>
+        <v>1.441152155108694e+17</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" t="s">
-        <v>199</v>
-      </c>
-      <c r="I11" t="s">
-        <v>199</v>
-      </c>
-      <c r="J11" t="s">
-        <v>199</v>
-      </c>
-      <c r="K11" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
       </c>
       <c r="L11">
-        <v>4000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>1778561918</v>
+        <v>1.441152155140565e+17</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" t="s">
-        <v>199</v>
-      </c>
-      <c r="J12" t="s">
-        <v>199</v>
-      </c>
-      <c r="K12" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
       </c>
       <c r="L12">
-        <v>4000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>3469795915</v>
+        <v>1090540033</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" t="s">
-        <v>199</v>
-      </c>
-      <c r="I13" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
       </c>
       <c r="L13">
-        <v>4000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>255606479</v>
+        <v>1.4411521360518e+17</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" t="s">
-        <v>199</v>
-      </c>
-      <c r="I14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J14" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
       </c>
       <c r="L14">
-        <v>4000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>28434076</v>
+        <v>1.441152155913287e+17</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" t="s">
-        <v>199</v>
-      </c>
-      <c r="J15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K15" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
       </c>
       <c r="L15">
-        <v>4000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>2736184070</v>
+        <v>2452286352</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" t="s">
-        <v>199</v>
-      </c>
-      <c r="I16" t="s">
-        <v>199</v>
-      </c>
-      <c r="J16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K16" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
       </c>
       <c r="L16">
-        <v>4000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>2069009981</v>
+        <v>1368499537</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L17">
         <v>4000</v>
@@ -1550,28 +1586,31 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>574405742</v>
+        <v>1.441152147165811e+17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L18">
         <v>4000</v>
@@ -1579,28 +1618,31 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>524637958</v>
+        <v>1.441152154975499e+17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L19">
         <v>4000</v>
@@ -1608,28 +1650,31 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>351072512</v>
+        <v>2609311635</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L20">
         <v>4000</v>
@@ -1637,31 +1682,31 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>1.441152150730597e+17</v>
+        <v>1.441152155040679e+17</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L21">
         <v>4000</v>
@@ -1669,31 +1714,31 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>1.441152154975499e+17</v>
+        <v>1.441152155019766e+17</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L22">
         <v>4000</v>
@@ -1701,31 +1746,31 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>2609311635</v>
+        <v>1.441152138021848e+17</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L23">
         <v>4000</v>
@@ -1733,31 +1778,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>1.441152155040679e+17</v>
+        <v>1.441152117883067e+17</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L24">
         <v>4000</v>
@@ -1765,31 +1810,31 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>1.441152155019766e+17</v>
+        <v>1.441152146711711e+17</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L25">
         <v>4000</v>
@@ -1797,31 +1842,31 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>1.441152138021848e+17</v>
+        <v>1.44115215507008e+17</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L26">
         <v>4000</v>
@@ -1829,31 +1874,31 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>1.441152117883067e+17</v>
+        <v>405551893</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L27">
         <v>4000</v>
@@ -1861,31 +1906,31 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>1.441152146711711e+17</v>
+        <v>2697008782</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L28">
         <v>4000</v>
@@ -1893,31 +1938,31 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>1.44115215507008e+17</v>
+        <v>2633327044</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L29">
         <v>4000</v>
@@ -1925,31 +1970,31 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>405551893</v>
+        <v>1726454319</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L30">
         <v>4000</v>
@@ -1957,31 +2002,31 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>2697008782</v>
+        <v>1.441152156005608e+17</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L31">
         <v>4000</v>
@@ -1989,31 +2034,31 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>1.441152110281079e+17</v>
+        <v>1.4411521550944e+17</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L32">
         <v>4000</v>
@@ -2021,31 +2066,31 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>2633327044</v>
+        <v>2089106473</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L33">
         <v>4000</v>
@@ -2053,31 +2098,31 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>1726454319</v>
+        <v>2870027685</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L34">
         <v>4000</v>
@@ -2085,31 +2130,31 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>1.441152156005608e+17</v>
+        <v>1.441152128436651e+17</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L35">
         <v>4000</v>
@@ -2117,31 +2162,31 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>1.4411521550944e+17</v>
+        <v>1.441152156046455e+17</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L36">
         <v>4000</v>
@@ -2149,31 +2194,31 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>1.441152155108694e+17</v>
+        <v>1.44115214665059e+17</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L37">
         <v>4000</v>
@@ -2181,31 +2226,31 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>2089106473</v>
+        <v>1.441152136754963e+17</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L38">
         <v>4000</v>
@@ -2213,325 +2258,352 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>2870027685</v>
+        <v>1411386023</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>183</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" t="s">
-        <v>199</v>
-      </c>
-      <c r="J39" t="s">
-        <v>199</v>
-      </c>
-      <c r="K39" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H39">
+        <v>25</v>
+      </c>
+      <c r="I39">
+        <v>25</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>25</v>
       </c>
       <c r="L39">
-        <v>4000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>1.441152128436651e+17</v>
+        <v>1.441152149399785e+17</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" t="s">
-        <v>199</v>
-      </c>
-      <c r="I40" t="s">
-        <v>199</v>
-      </c>
-      <c r="J40" t="s">
-        <v>199</v>
-      </c>
-      <c r="K40" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>1090540033</v>
+        <v>1.441152154443179e+17</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G41" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" t="s">
-        <v>199</v>
-      </c>
-      <c r="I41" t="s">
-        <v>199</v>
-      </c>
-      <c r="J41" t="s">
-        <v>199</v>
-      </c>
-      <c r="K41" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>4000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>1.441152120389063e+17</v>
+        <v>1.441152154631168e+17</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G42" t="s">
-        <v>198</v>
-      </c>
-      <c r="H42" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" t="s">
-        <v>199</v>
-      </c>
-      <c r="J42" t="s">
-        <v>199</v>
-      </c>
-      <c r="K42" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>25</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>4000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>1.441152156046455e+17</v>
+        <v>1.441152147825453e+17</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H43" t="s">
-        <v>199</v>
-      </c>
-      <c r="I43" t="s">
-        <v>199</v>
-      </c>
-      <c r="J43" t="s">
-        <v>199</v>
-      </c>
-      <c r="K43" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H43">
+        <v>25</v>
+      </c>
+      <c r="I43">
+        <v>25</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>25</v>
       </c>
       <c r="L43">
-        <v>4000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>1.441152155140565e+17</v>
+        <v>1.441152146406175e+17</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G44" t="s">
-        <v>198</v>
-      </c>
-      <c r="H44" t="s">
-        <v>199</v>
-      </c>
-      <c r="I44" t="s">
-        <v>199</v>
-      </c>
-      <c r="J44" t="s">
-        <v>199</v>
-      </c>
-      <c r="K44" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H44">
+        <v>25</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>4000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>1.44115214665059e+17</v>
+        <v>1.441152136353316e+17</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G45" t="s">
-        <v>198</v>
-      </c>
-      <c r="H45" t="s">
-        <v>199</v>
-      </c>
-      <c r="I45" t="s">
-        <v>199</v>
-      </c>
-      <c r="J45" t="s">
-        <v>199</v>
-      </c>
-      <c r="K45" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H45">
+        <v>25</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>25</v>
       </c>
       <c r="L45">
-        <v>4000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>1.441152155773709e+17</v>
+        <v>1.441152136127301e+17</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G46" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J46" t="s">
-        <v>199</v>
-      </c>
-      <c r="K46" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H46">
+        <v>25</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>25</v>
       </c>
       <c r="L46">
-        <v>4000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>1.441152136754963e+17</v>
+        <v>1.441152121169066e+17</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
+        <v>191</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
-      </c>
-      <c r="H47" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" t="s">
-        <v>199</v>
-      </c>
-      <c r="J47" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="H47">
+        <v>25</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>25</v>
       </c>
       <c r="L47">
-        <v>4000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>1.441152149399785e+17</v>
+        <v>1.441152127680113e+17</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2539,19 +2611,19 @@
         <v>1.441152135925313e+17</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G49" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2571,57 +2643,57 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>1.441152154631168e+17</v>
+        <v>1.441152154590827e+17</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G50" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>1.441152147825453e+17</v>
+        <v>1.441152137837243e+17</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G51" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H51">
         <v>25</v>
@@ -2641,127 +2713,127 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>1.441152146406175e+17</v>
+        <v>1.441152131578535e+17</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G52" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H52">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J52">
         <v>25</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.441152137837243e+17</v>
+        <v>2935128039</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E53" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H53">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>25</v>
       </c>
       <c r="J53">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>2935128039</v>
+        <v>1.441152143827261e+17</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G54" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I54">
         <v>25</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>1.441152121169066e+17</v>
+        <v>1242197425</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G55" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H55">
         <v>25</v>
@@ -2781,66 +2853,63 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>1242197425</v>
+        <v>1169337971</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G56" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56">
-        <v>25</v>
-      </c>
-      <c r="I56">
-        <v>25</v>
-      </c>
-      <c r="J56">
-        <v>25</v>
-      </c>
-      <c r="K56">
-        <v>25</v>
+        <v>202</v>
+      </c>
+      <c r="H56" t="s">
+        <v>203</v>
+      </c>
+      <c r="I56" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" t="s">
+        <v>203</v>
+      </c>
+      <c r="K56" t="s">
+        <v>203</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>1169337971</v>
+        <v>1713019685</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G57" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H57" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I57" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J57" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K57" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L57">
         <v>4000</v>
@@ -2848,31 +2917,31 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>1411386023</v>
+        <v>2160689626</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L58">
         <v>4000</v>
@@ -2880,31 +2949,31 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>1713019685</v>
+        <v>2801935472</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G59" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L59">
         <v>4000</v>
@@ -2912,31 +2981,31 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>2160689626</v>
+        <v>3025076255</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G60" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H60" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I60" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J60" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K60" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L60">
         <v>4000</v>
@@ -2944,31 +3013,31 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>2801935472</v>
+        <v>1.441152112342919e+17</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G61" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H61" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I61" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J61" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K61" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L61">
         <v>4000</v>
@@ -2976,31 +3045,31 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>3025076255</v>
+        <v>1.441152112665081e+17</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G62" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H62" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I62" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J62" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K62" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L62">
         <v>4000</v>
@@ -3008,31 +3077,31 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>1.441152112342919e+17</v>
+        <v>1.441152129781689e+17</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G63" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H63" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I63" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J63" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K63" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L63">
         <v>4000</v>
@@ -3040,31 +3109,31 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>1.441152112665081e+17</v>
+        <v>1.441152137384308e+17</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G64" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H64" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I64" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J64" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K64" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L64">
         <v>4000</v>
@@ -3072,31 +3141,31 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>1.441152129781689e+17</v>
+        <v>1.441152138205188e+17</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G65" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L65">
         <v>4000</v>
@@ -3104,31 +3173,31 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>1.441152136127301e+17</v>
+        <v>1.441152138243933e+17</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G66" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H66" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I66" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J66" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K66" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L66">
         <v>4000</v>
@@ -3136,31 +3205,31 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>1.441152136353316e+17</v>
+        <v>1.441152138261664e+17</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G67" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H67" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I67" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J67" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K67" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L67">
         <v>4000</v>
@@ -3168,31 +3237,31 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>1.441152137384308e+17</v>
+        <v>1.441152140481083e+17</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G68" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L68">
         <v>4000</v>
@@ -3200,31 +3269,31 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>1.441152138205188e+17</v>
+        <v>1.441152140618626e+17</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G69" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H69" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I69" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J69" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K69" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L69">
         <v>4000</v>
@@ -3232,31 +3301,31 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>1.441152138243933e+17</v>
+        <v>1.441152140821214e+17</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G70" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H70" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J70" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K70" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L70">
         <v>4000</v>
@@ -3264,31 +3333,31 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>1.441152138261664e+17</v>
+        <v>1.441152146345212e+17</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G71" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H71" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I71" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J71" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K71" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L71">
         <v>4000</v>
@@ -3296,31 +3365,31 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>1.441152140481083e+17</v>
+        <v>1.441152147437144e+17</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G72" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H72" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I72" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J72" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K72" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L72">
         <v>4000</v>
@@ -3328,31 +3397,31 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>1.441152140618626e+17</v>
+        <v>1.441152147656507e+17</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H73" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I73" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J73" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K73" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L73">
         <v>4000</v>
@@ -3360,31 +3429,31 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>1.441152140821214e+17</v>
+        <v>1.441152152737178e+17</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H74" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I74" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J74" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K74" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L74">
         <v>4000</v>
@@ -3392,31 +3461,31 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>1.441152143827261e+17</v>
+        <v>1.441152153039231e+17</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H75" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I75" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J75" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K75" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L75">
         <v>4000</v>
@@ -3424,31 +3493,31 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>1.441152146345212e+17</v>
+        <v>1.441152153247228e+17</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G76" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H76" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I76" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J76" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K76" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L76">
         <v>4000</v>
@@ -3456,31 +3525,31 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>1.441152147437144e+17</v>
+        <v>1.441152155486042e+17</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G77" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H77" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I77" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J77" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K77" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L77">
         <v>4000</v>
@@ -3488,31 +3557,31 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>1.441152147656507e+17</v>
+        <v>1318244912</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G78" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H78" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I78" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J78" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K78" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L78">
         <v>4000</v>
@@ -3520,31 +3589,31 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>1.441152152737178e+17</v>
+        <v>1.441152155461614e+17</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G79" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H79" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I79" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J79" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K79" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L79">
         <v>4000</v>
@@ -3552,31 +3621,31 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>1.441152153039231e+17</v>
+        <v>1.4411521532062e+17</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G80" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L80">
         <v>4000</v>
@@ -3584,31 +3653,31 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>1.441152153247228e+17</v>
+        <v>1621936524</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G81" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L81">
         <v>4000</v>
@@ -3616,31 +3685,31 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>1.441152131578535e+17</v>
+        <v>1.441152140725712e+17</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G82" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L82">
         <v>4000</v>
@@ -3648,321 +3717,33 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>1.441152155486042e+17</v>
+        <v>1.441152153936091e+17</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G83" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H83" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I83" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J83" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K83" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L83">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84">
-        <v>1318244912</v>
-      </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="s">
-        <v>172</v>
-      </c>
-      <c r="E84" t="s">
-        <v>197</v>
-      </c>
-      <c r="G84" t="s">
-        <v>198</v>
-      </c>
-      <c r="H84" t="s">
-        <v>199</v>
-      </c>
-      <c r="I84" t="s">
-        <v>199</v>
-      </c>
-      <c r="J84" t="s">
-        <v>199</v>
-      </c>
-      <c r="K84" t="s">
-        <v>199</v>
-      </c>
-      <c r="L84">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85">
-        <v>1.441152154590827e+17</v>
-      </c>
-      <c r="B85" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" t="s">
-        <v>173</v>
-      </c>
-      <c r="E85" t="s">
-        <v>197</v>
-      </c>
-      <c r="G85" t="s">
-        <v>198</v>
-      </c>
-      <c r="H85" t="s">
-        <v>199</v>
-      </c>
-      <c r="I85" t="s">
-        <v>199</v>
-      </c>
-      <c r="J85" t="s">
-        <v>199</v>
-      </c>
-      <c r="K85" t="s">
-        <v>199</v>
-      </c>
-      <c r="L85">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86">
-        <v>1.441152155461614e+17</v>
-      </c>
-      <c r="B86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" t="s">
-        <v>174</v>
-      </c>
-      <c r="E86" t="s">
-        <v>197</v>
-      </c>
-      <c r="G86" t="s">
-        <v>198</v>
-      </c>
-      <c r="H86" t="s">
-        <v>199</v>
-      </c>
-      <c r="I86" t="s">
-        <v>199</v>
-      </c>
-      <c r="J86" t="s">
-        <v>199</v>
-      </c>
-      <c r="K86" t="s">
-        <v>199</v>
-      </c>
-      <c r="L86">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87">
-        <v>1.441152127680113e+17</v>
-      </c>
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="s">
-        <v>175</v>
-      </c>
-      <c r="E87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G87" t="s">
-        <v>198</v>
-      </c>
-      <c r="H87" t="s">
-        <v>199</v>
-      </c>
-      <c r="I87" t="s">
-        <v>199</v>
-      </c>
-      <c r="J87" t="s">
-        <v>199</v>
-      </c>
-      <c r="K87" t="s">
-        <v>199</v>
-      </c>
-      <c r="L87">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88">
-        <v>1.4411521532062e+17</v>
-      </c>
-      <c r="B88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" t="s">
-        <v>176</v>
-      </c>
-      <c r="E88" t="s">
-        <v>197</v>
-      </c>
-      <c r="G88" t="s">
-        <v>198</v>
-      </c>
-      <c r="H88" t="s">
-        <v>199</v>
-      </c>
-      <c r="I88" t="s">
-        <v>199</v>
-      </c>
-      <c r="J88" t="s">
-        <v>199</v>
-      </c>
-      <c r="K88" t="s">
-        <v>199</v>
-      </c>
-      <c r="L88">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89">
-        <v>1621936524</v>
-      </c>
-      <c r="B89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" t="s">
-        <v>177</v>
-      </c>
-      <c r="E89" t="s">
-        <v>197</v>
-      </c>
-      <c r="G89" t="s">
-        <v>198</v>
-      </c>
-      <c r="H89" t="s">
-        <v>199</v>
-      </c>
-      <c r="I89" t="s">
-        <v>199</v>
-      </c>
-      <c r="J89" t="s">
-        <v>199</v>
-      </c>
-      <c r="K89" t="s">
-        <v>199</v>
-      </c>
-      <c r="L89">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90">
-        <v>1.441152140725712e+17</v>
-      </c>
-      <c r="B90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" t="s">
-        <v>178</v>
-      </c>
-      <c r="E90" t="s">
-        <v>197</v>
-      </c>
-      <c r="G90" t="s">
-        <v>198</v>
-      </c>
-      <c r="H90" t="s">
-        <v>199</v>
-      </c>
-      <c r="I90" t="s">
-        <v>199</v>
-      </c>
-      <c r="J90" t="s">
-        <v>199</v>
-      </c>
-      <c r="K90" t="s">
-        <v>199</v>
-      </c>
-      <c r="L90">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91">
-        <v>1.441152153936091e+17</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91" t="s">
-        <v>197</v>
-      </c>
-      <c r="G91" t="s">
-        <v>198</v>
-      </c>
-      <c r="H91" t="s">
-        <v>199</v>
-      </c>
-      <c r="I91" t="s">
-        <v>199</v>
-      </c>
-      <c r="J91" t="s">
-        <v>199</v>
-      </c>
-      <c r="K91" t="s">
-        <v>199</v>
-      </c>
-      <c r="L91">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92">
-        <v>1.441152154443179e+17</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92" t="s">
-        <v>198</v>
-      </c>
-      <c r="H92" t="s">
-        <v>199</v>
-      </c>
-      <c r="I92" t="s">
-        <v>199</v>
-      </c>
-      <c r="J92" t="s">
-        <v>199</v>
-      </c>
-      <c r="K92" t="s">
-        <v>199</v>
-      </c>
-      <c r="L92">
         <v>4000</v>
       </c>
     </row>

--- a/学情反馈解决方案/dataWork.xlsx
+++ b/学情反馈解决方案/dataWork.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="286">
   <si>
     <t>学员uid</t>
   </si>
@@ -50,6 +50,252 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>144115213417540413</t>
+  </si>
+  <si>
+    <t>144115215600509940</t>
+  </si>
+  <si>
+    <t>144115215599896823</t>
+  </si>
+  <si>
+    <t>144115211028107911</t>
+  </si>
+  <si>
+    <t>144115215073059714</t>
+  </si>
+  <si>
+    <t>144115215604891889</t>
+  </si>
+  <si>
+    <t>144115215239879888</t>
+  </si>
+  <si>
+    <t>144115215577370898</t>
+  </si>
+  <si>
+    <t>144115212038906298</t>
+  </si>
+  <si>
+    <t>144115215510869378</t>
+  </si>
+  <si>
+    <t>144115215514056532</t>
+  </si>
+  <si>
+    <t>1090540033</t>
+  </si>
+  <si>
+    <t>144115213605179996</t>
+  </si>
+  <si>
+    <t>144115215591328661</t>
+  </si>
+  <si>
+    <t>2452286352</t>
+  </si>
+  <si>
+    <t>1368499537</t>
+  </si>
+  <si>
+    <t>144115214716581103</t>
+  </si>
+  <si>
+    <t>144115215497549848</t>
+  </si>
+  <si>
+    <t>2609311635</t>
+  </si>
+  <si>
+    <t>144115215504067927</t>
+  </si>
+  <si>
+    <t>144115215501976631</t>
+  </si>
+  <si>
+    <t>144115213802184769</t>
+  </si>
+  <si>
+    <t>144115211788306695</t>
+  </si>
+  <si>
+    <t>144115214671171099</t>
+  </si>
+  <si>
+    <t>144115215507008022</t>
+  </si>
+  <si>
+    <t>405551893</t>
+  </si>
+  <si>
+    <t>2697008782</t>
+  </si>
+  <si>
+    <t>2633327044</t>
+  </si>
+  <si>
+    <t>1726454319</t>
+  </si>
+  <si>
+    <t>144115215600560768</t>
+  </si>
+  <si>
+    <t>144115215509440041</t>
+  </si>
+  <si>
+    <t>2089106473</t>
+  </si>
+  <si>
+    <t>2870027685</t>
+  </si>
+  <si>
+    <t>144115212843665130</t>
+  </si>
+  <si>
+    <t>144115215604645470</t>
+  </si>
+  <si>
+    <t>144115214665059029</t>
+  </si>
+  <si>
+    <t>144115213675496271</t>
+  </si>
+  <si>
+    <t>1411386023</t>
+  </si>
+  <si>
+    <t>144115214939978469</t>
+  </si>
+  <si>
+    <t>144115215444317919</t>
+  </si>
+  <si>
+    <t>144115215463116777</t>
+  </si>
+  <si>
+    <t>144115214782545336</t>
+  </si>
+  <si>
+    <t>144115214640617540</t>
+  </si>
+  <si>
+    <t>144115213635331595</t>
+  </si>
+  <si>
+    <t>144115213612730082</t>
+  </si>
+  <si>
+    <t>144115212116906545</t>
+  </si>
+  <si>
+    <t>144115212768011339</t>
+  </si>
+  <si>
+    <t>144115213592531328</t>
+  </si>
+  <si>
+    <t>144115215459082662</t>
+  </si>
+  <si>
+    <t>144115213783724290</t>
+  </si>
+  <si>
+    <t>144115213157853485</t>
+  </si>
+  <si>
+    <t>2935128039</t>
+  </si>
+  <si>
+    <t>144115214382726152</t>
+  </si>
+  <si>
+    <t>1242197425</t>
+  </si>
+  <si>
+    <t>1169337971</t>
+  </si>
+  <si>
+    <t>1713019685</t>
+  </si>
+  <si>
+    <t>2160689626</t>
+  </si>
+  <si>
+    <t>2801935472</t>
+  </si>
+  <si>
+    <t>3025076255</t>
+  </si>
+  <si>
+    <t>144115211234291905</t>
+  </si>
+  <si>
+    <t>144115211266508056</t>
+  </si>
+  <si>
+    <t>144115212978168860</t>
+  </si>
+  <si>
+    <t>144115213738430796</t>
+  </si>
+  <si>
+    <t>144115213820518802</t>
+  </si>
+  <si>
+    <t>144115213824393310</t>
+  </si>
+  <si>
+    <t>144115213826166370</t>
+  </si>
+  <si>
+    <t>144115214048108265</t>
+  </si>
+  <si>
+    <t>144115214061862574</t>
+  </si>
+  <si>
+    <t>144115214082121417</t>
+  </si>
+  <si>
+    <t>144115214634521142</t>
+  </si>
+  <si>
+    <t>144115214743714411</t>
+  </si>
+  <si>
+    <t>144115214765650657</t>
+  </si>
+  <si>
+    <t>144115215273717788</t>
+  </si>
+  <si>
+    <t>144115215303923118</t>
+  </si>
+  <si>
+    <t>144115215324722862</t>
+  </si>
+  <si>
+    <t>144115215548604158</t>
+  </si>
+  <si>
+    <t>1318244912</t>
+  </si>
+  <si>
+    <t>144115215546161394</t>
+  </si>
+  <si>
+    <t>144115215320619986</t>
+  </si>
+  <si>
+    <t>1621936524</t>
+  </si>
+  <si>
+    <t>144115214072571201</t>
+  </si>
+  <si>
+    <t>144115215393609046</t>
   </si>
   <si>
     <t>崔菁菁</t>
@@ -1028,23 +1274,23 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2">
-        <v>1.441152134175404e+17</v>
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1063,23 +1309,23 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3">
-        <v>1.4411521560051e+17</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H3">
         <v>25</v>
@@ -1098,23 +1344,23 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
-        <v>1.441152155998968e+17</v>
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1133,23 +1379,23 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5">
-        <v>1.441152110281079e+17</v>
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H5">
         <v>25</v>
@@ -1168,23 +1414,23 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
-        <v>1.441152150730597e+17</v>
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H6">
         <v>25</v>
@@ -1203,23 +1449,23 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7">
-        <v>1.441152156048919e+17</v>
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G7" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1238,23 +1484,23 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8">
-        <v>1.441152152398799e+17</v>
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H8">
         <v>25</v>
@@ -1273,23 +1519,23 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9">
-        <v>1.441152155773709e+17</v>
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1308,23 +1554,23 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10">
-        <v>1.441152120389063e+17</v>
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G10" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1343,23 +1589,23 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11">
-        <v>1.441152155108694e+17</v>
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G11" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1378,23 +1624,23 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12">
-        <v>1.441152155140565e+17</v>
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H12">
         <v>25</v>
@@ -1413,23 +1659,23 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13">
-        <v>1090540033</v>
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G13" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H13">
         <v>25</v>
@@ -1448,23 +1694,23 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14">
-        <v>1.4411521360518e+17</v>
+      <c r="A14" t="s">
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G14" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1483,23 +1729,23 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15">
-        <v>1.441152155913287e+17</v>
+      <c r="A15" t="s">
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G15" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1518,23 +1764,23 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16">
-        <v>2452286352</v>
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G16" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1553,727 +1799,727 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17">
-        <v>1368499537</v>
+      <c r="A17" t="s">
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" t="s">
+        <v>285</v>
+      </c>
+      <c r="J17" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I18" t="s">
+        <v>285</v>
+      </c>
+      <c r="J18" t="s">
+        <v>285</v>
+      </c>
+      <c r="K18" t="s">
+        <v>285</v>
+      </c>
+      <c r="L18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" t="s">
+        <v>285</v>
+      </c>
+      <c r="J19" t="s">
+        <v>285</v>
+      </c>
+      <c r="K19" t="s">
+        <v>285</v>
+      </c>
+      <c r="L19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" t="s">
+        <v>285</v>
+      </c>
+      <c r="J20" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" t="s">
+        <v>285</v>
+      </c>
+      <c r="J21" t="s">
+        <v>285</v>
+      </c>
+      <c r="K21" t="s">
+        <v>285</v>
+      </c>
+      <c r="L21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" t="s">
+        <v>285</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>285</v>
+      </c>
+      <c r="L22">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H23" t="s">
+        <v>285</v>
+      </c>
+      <c r="I23" t="s">
+        <v>285</v>
+      </c>
+      <c r="J23" t="s">
+        <v>285</v>
+      </c>
+      <c r="K23" t="s">
+        <v>285</v>
+      </c>
+      <c r="L23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" t="s">
+        <v>285</v>
+      </c>
+      <c r="I24" t="s">
+        <v>285</v>
+      </c>
+      <c r="J24" t="s">
+        <v>285</v>
+      </c>
+      <c r="K24" t="s">
+        <v>285</v>
+      </c>
+      <c r="L24">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I25" t="s">
+        <v>285</v>
+      </c>
+      <c r="J25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" t="s">
+        <v>284</v>
+      </c>
+      <c r="H26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I26" t="s">
+        <v>285</v>
+      </c>
+      <c r="J26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" t="s">
+        <v>285</v>
+      </c>
+      <c r="L26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" t="s">
+        <v>285</v>
+      </c>
+      <c r="I27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J27" t="s">
+        <v>285</v>
+      </c>
+      <c r="K27" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
         <v>200</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="H28" t="s">
+        <v>285</v>
+      </c>
+      <c r="I28" t="s">
+        <v>285</v>
+      </c>
+      <c r="J28" t="s">
+        <v>285</v>
+      </c>
+      <c r="K28" t="s">
+        <v>285</v>
+      </c>
+      <c r="L28">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I29" t="s">
+        <v>285</v>
+      </c>
+      <c r="J29" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
         <v>202</v>
       </c>
-      <c r="H17" t="s">
+      <c r="E30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H30" t="s">
+        <v>285</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" t="s">
+        <v>285</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
         <v>203</v>
       </c>
-      <c r="I17" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" t="s">
-        <v>203</v>
-      </c>
-      <c r="K17" t="s">
-        <v>203</v>
-      </c>
-      <c r="L17">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>1.441152147165811e+17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G18" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" t="s">
-        <v>203</v>
-      </c>
-      <c r="K18" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>1.441152154975499e+17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" t="s">
-        <v>203</v>
-      </c>
-      <c r="L19">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>2609311635</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>1.441152155040679e+17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" t="s">
-        <v>200</v>
-      </c>
-      <c r="G21" t="s">
-        <v>202</v>
-      </c>
-      <c r="H21" t="s">
-        <v>203</v>
-      </c>
-      <c r="I21" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" t="s">
-        <v>203</v>
-      </c>
-      <c r="K21" t="s">
-        <v>203</v>
-      </c>
-      <c r="L21">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>1.441152155019766e+17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" t="s">
-        <v>203</v>
-      </c>
-      <c r="I22" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" t="s">
-        <v>203</v>
-      </c>
-      <c r="K22" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>1.441152138021848e+17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" t="s">
-        <v>202</v>
-      </c>
-      <c r="H23" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" t="s">
-        <v>203</v>
-      </c>
-      <c r="L23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>1.441152117883067e+17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L24">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>1.441152146711711e+17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" t="s">
-        <v>202</v>
-      </c>
-      <c r="H25" t="s">
-        <v>203</v>
-      </c>
-      <c r="I25" t="s">
-        <v>203</v>
-      </c>
-      <c r="J25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K25" t="s">
-        <v>203</v>
-      </c>
-      <c r="L25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>1.44115215507008e+17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" t="s">
-        <v>203</v>
-      </c>
-      <c r="I26" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" t="s">
-        <v>203</v>
-      </c>
-      <c r="K26" t="s">
-        <v>203</v>
-      </c>
-      <c r="L26">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>405551893</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" t="s">
-        <v>203</v>
-      </c>
-      <c r="I27" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" t="s">
-        <v>203</v>
-      </c>
-      <c r="K27" t="s">
-        <v>203</v>
-      </c>
-      <c r="L27">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>2697008782</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" t="s">
-        <v>203</v>
-      </c>
-      <c r="I28" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" t="s">
-        <v>203</v>
-      </c>
-      <c r="K28" t="s">
-        <v>203</v>
-      </c>
-      <c r="L28">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>2633327044</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" t="s">
-        <v>202</v>
-      </c>
-      <c r="H29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I29" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" t="s">
-        <v>203</v>
-      </c>
-      <c r="L29">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>1726454319</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" t="s">
-        <v>202</v>
-      </c>
-      <c r="H30" t="s">
-        <v>203</v>
-      </c>
-      <c r="I30" t="s">
-        <v>203</v>
-      </c>
-      <c r="J30" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" t="s">
-        <v>203</v>
-      </c>
-      <c r="L30">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>1.441152156005608e+17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" t="s">
-        <v>200</v>
-      </c>
-      <c r="G31" t="s">
-        <v>202</v>
-      </c>
-      <c r="H31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I31" t="s">
-        <v>203</v>
-      </c>
-      <c r="J31" t="s">
-        <v>203</v>
-      </c>
-      <c r="K31" t="s">
-        <v>203</v>
-      </c>
-      <c r="L31">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>1.4411521550944e+17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>121</v>
-      </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L32">
         <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33">
-        <v>2089106473</v>
+      <c r="A33" t="s">
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H33" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L33">
         <v>4000</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34">
-        <v>2870027685</v>
+      <c r="A34" t="s">
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I34" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L34">
         <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35">
-        <v>1.441152128436651e+17</v>
+      <c r="A35" t="s">
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I35" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J35" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L35">
         <v>4000</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36">
-        <v>1.441152156046455e+17</v>
+      <c r="A36" t="s">
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L36">
         <v>4000</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37">
-        <v>1.44115214665059e+17</v>
+      <c r="A37" t="s">
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H37" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I37" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J37" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L37">
         <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38">
-        <v>1.441152136754963e+17</v>
+      <c r="A38" t="s">
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H38" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I38" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J38" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L38">
         <v>4000</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39">
-        <v>1411386023</v>
+      <c r="A39" t="s">
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H39">
         <v>25</v>
@@ -2292,23 +2538,23 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40">
-        <v>1.441152149399785e+17</v>
+      <c r="A40" t="s">
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2327,23 +2573,23 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41">
-        <v>1.441152154443179e+17</v>
+      <c r="A41" t="s">
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G41" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2362,23 +2608,23 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42">
-        <v>1.441152154631168e+17</v>
+      <c r="A42" t="s">
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2397,23 +2643,23 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43">
-        <v>1.441152147825453e+17</v>
+      <c r="A43" t="s">
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G43" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H43">
         <v>25</v>
@@ -2432,23 +2678,23 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44">
-        <v>1.441152146406175e+17</v>
+      <c r="A44" t="s">
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G44" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H44">
         <v>25</v>
@@ -2467,23 +2713,23 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45">
-        <v>1.441152136353316e+17</v>
+      <c r="A45" t="s">
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G45" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H45">
         <v>25</v>
@@ -2502,23 +2748,23 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46">
-        <v>1.441152136127301e+17</v>
+      <c r="A46" t="s">
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G46" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H46">
         <v>25</v>
@@ -2537,23 +2783,23 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47">
-        <v>1.441152121169066e+17</v>
+      <c r="A47" t="s">
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G47" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H47">
         <v>25</v>
@@ -2572,23 +2818,23 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48">
-        <v>1.441152127680113e+17</v>
+      <c r="A48" t="s">
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G48" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2607,23 +2853,23 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49">
-        <v>1.441152135925313e+17</v>
+      <c r="A49" t="s">
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G49" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2642,23 +2888,23 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50">
-        <v>1.441152154590827e+17</v>
+      <c r="A50" t="s">
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G50" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2677,23 +2923,23 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51">
-        <v>1.441152137837243e+17</v>
+      <c r="A51" t="s">
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H51">
         <v>25</v>
@@ -2712,23 +2958,23 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52">
-        <v>1.441152131578535e+17</v>
+      <c r="A52" t="s">
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G52" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2747,23 +2993,23 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53">
-        <v>2935128039</v>
+      <c r="A53" t="s">
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G53" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2782,23 +3028,23 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54">
-        <v>1.441152143827261e+17</v>
+      <c r="A54" t="s">
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G54" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H54">
         <v>25</v>
@@ -2817,23 +3063,23 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55">
-        <v>1242197425</v>
+      <c r="A55" t="s">
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="E55" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H55">
         <v>25</v>
@@ -2852,896 +3098,896 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56">
-        <v>1169337971</v>
+      <c r="A56" t="s">
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G56" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H56" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I56" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J56" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K56" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L56">
         <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57">
-        <v>1713019685</v>
+      <c r="A57" t="s">
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G57" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H57" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I57" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J57" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K57" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L57">
         <v>4000</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58">
-        <v>2160689626</v>
+      <c r="A58" t="s">
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G58" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I58" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J58" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K58" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L58">
         <v>4000</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59">
-        <v>2801935472</v>
+      <c r="A59" t="s">
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G59" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I59" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J59" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K59" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L59">
         <v>4000</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60">
-        <v>3025076255</v>
+      <c r="A60" t="s">
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G60" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H60" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I60" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J60" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K60" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L60">
         <v>4000</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61">
-        <v>1.441152112342919e+17</v>
+      <c r="A61" t="s">
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G61" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H61" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I61" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J61" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K61" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L61">
         <v>4000</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62">
-        <v>1.441152112665081e+17</v>
+      <c r="A62" t="s">
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="E62" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G62" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H62" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I62" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J62" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K62" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L62">
         <v>4000</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63">
-        <v>1.441152129781689e+17</v>
+      <c r="A63" t="s">
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G63" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H63" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I63" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J63" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K63" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L63">
         <v>4000</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64">
-        <v>1.441152137384308e+17</v>
+      <c r="A64" t="s">
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G64" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I64" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J64" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K64" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L64">
         <v>4000</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65">
-        <v>1.441152138205188e+17</v>
+      <c r="A65" t="s">
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G65" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H65" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I65" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J65" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K65" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L65">
         <v>4000</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66">
-        <v>1.441152138243933e+17</v>
+      <c r="A66" t="s">
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G66" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H66" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I66" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J66" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K66" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L66">
         <v>4000</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67">
-        <v>1.441152138261664e+17</v>
+      <c r="A67" t="s">
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G67" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H67" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I67" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J67" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K67" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L67">
         <v>4000</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68">
-        <v>1.441152140481083e+17</v>
+      <c r="A68" t="s">
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="E68" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G68" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H68" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I68" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J68" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K68" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L68">
         <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69">
-        <v>1.441152140618626e+17</v>
+      <c r="A69" t="s">
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G69" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H69" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I69" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J69" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K69" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L69">
         <v>4000</v>
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70">
-        <v>1.441152140821214e+17</v>
+      <c r="A70" t="s">
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G70" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H70" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I70" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J70" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K70" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L70">
         <v>4000</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71">
-        <v>1.441152146345212e+17</v>
+      <c r="A71" t="s">
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G71" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H71" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I71" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J71" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K71" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L71">
         <v>4000</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72">
-        <v>1.441152147437144e+17</v>
+      <c r="A72" t="s">
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G72" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H72" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I72" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J72" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K72" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L72">
         <v>4000</v>
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73">
-        <v>1.441152147656507e+17</v>
+      <c r="A73" t="s">
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="E73" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G73" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H73" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I73" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J73" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K73" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L73">
         <v>4000</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74">
-        <v>1.441152152737178e+17</v>
+      <c r="A74" t="s">
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G74" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H74" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J74" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K74" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L74">
         <v>4000</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75">
-        <v>1.441152153039231e+17</v>
+      <c r="A75" t="s">
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G75" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H75" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I75" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J75" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K75" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L75">
         <v>4000</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76">
-        <v>1.441152153247228e+17</v>
+      <c r="A76" t="s">
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="E76" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G76" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H76" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I76" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J76" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K76" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L76">
         <v>4000</v>
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77">
-        <v>1.441152155486042e+17</v>
+      <c r="A77" t="s">
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G77" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H77" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I77" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J77" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K77" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L77">
         <v>4000</v>
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78">
-        <v>1318244912</v>
+      <c r="A78" t="s">
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="E78" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G78" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H78" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I78" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J78" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K78" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L78">
         <v>4000</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79">
-        <v>1.441152155461614e+17</v>
+      <c r="A79" t="s">
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="E79" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G79" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H79" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I79" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J79" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K79" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L79">
         <v>4000</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80">
-        <v>1.4411521532062e+17</v>
+      <c r="A80" t="s">
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G80" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H80" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I80" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J80" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K80" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L80">
         <v>4000</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81">
-        <v>1621936524</v>
+      <c r="A81" t="s">
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G81" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H81" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I81" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J81" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K81" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L81">
         <v>4000</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82">
-        <v>1.441152140725712e+17</v>
+      <c r="A82" t="s">
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G82" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H82" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I82" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J82" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K82" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L82">
         <v>4000</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83">
-        <v>1.441152153936091e+17</v>
+      <c r="A83" t="s">
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G83" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="H83" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="I83" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="J83" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="K83" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="L83">
         <v>4000</v>
